--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2357.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2357.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8474962699033137</v>
+        <v>1.009240865707397</v>
       </c>
       <c r="B1">
-        <v>1.503127343170589</v>
+        <v>2.119159460067749</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.367868900299072</v>
       </c>
       <c r="D1">
-        <v>2.227602294699634</v>
+        <v>1.567803382873535</v>
       </c>
       <c r="E1">
-        <v>1.243004413302614</v>
+        <v>1.362676978111267</v>
       </c>
     </row>
   </sheetData>
